--- a/cite-1.0.0/参考文献.xlsx
+++ b/cite-1.0.0/参考文献.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB1FFE2-94E6-4DE4-B504-2460769413E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D390E3D2-1048-4FCC-9EA9-C996C27C4660}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>’6</t>
-  </si>
-  <si>
-    <t>’7</t>
   </si>
   <si>
     <t>’8</t>
@@ -575,9 +572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Robust Surface Registration Using Optimal Mass Transport and Teichm¨uller Mapping</t>
-  </si>
-  <si>
     <t>使用最佳质量传输和Teichm¨uller映射的鲁棒表面配准</t>
   </si>
   <si>
@@ -1078,10 +1072,6 @@
   <si>
     <t>在本文中，我们提出了 Aurenhammer、Hoffmann 和 Aronov 算法的改进，以在欧几里得平面中找到概率密度和具有质量约束的有限位点集之间的最小二乘匹配。我们的算法利用了这个最优传输问题的多尺度特性。我们使用劳埃德算法迭代地简化目标，并将
 简化问题的解决方案作为更复杂问题的粗略初始解决方案。这种方法可以快速估计与最佳运输相关的措施之间的距离（称为推土机距离或 Wasserstein 距离）。我们还讨论了这些算法的实现，并将原始算法与多尺度算法进行了比较。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基 于 最 优 传 输理 论 的 联 合 分 布 匹 配 方 法 及 应 用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1129,12 +1119,116 @@
 2. 通过求保质量映射的极坐标分解的等价问题来寻求最优映射（通过梯度下降技术实现）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1. 利用保角映射将具有圆盘拓扑的度量曲面映射到单位平面圆盘上
+2. 利用所产生的面积畸变获取其概率测度，通过计算具有两个概率测度的两个表面之间的唯一的最优质量运输映射（用牛顿法进行能量优化）
+3. 我们可以得到定义两个表面之间的Wasserstein距离的最优运输成本，这种Wasserstein距离可以在本质上测量基于曲面形状之间的差异，从而可以用于形状分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robust Surface Registration Using Optimal Mass Transport and Teichm¨uller Mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 利用OMT-Map实现一个区域保持映射，将源和目标映射到一个单位平面圆盘上，而不会产生大面积失真。
+2. 然后将表面配准问题转化为两个平面圆盘之间的地标匹配T-Map，使映射在整个域上具有一致的形象失真，同时使最大形象失真最小。
+3. 使用一个迭代算法得到一个最优的Beltrami系数。
+计算三步骤：共形映射、最优质量传输映射、Teichmuller映射。
+（需要使用牛顿法，计算雅可比矩阵等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>’7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 为了解决密度为 μ 的度量（例如灰度图像）与离散度量 ν 之间的最优传输问题，我们使用 Lloyd 算法构建了 ν 的简化序列 ν 0 =ν, ..., ν L
+2. 使用标准凸优化技术解决 μ 和最粗略测量 ν L之间更容易的传输问题。
+3. 然后，我们使用该问题的解决方案来构建 μ 和 ν L –1之间的最佳传输的初始猜测。
+4. 然后我们从这个猜测开始进行凸优化，以解决 μ 和 ν L –1之间的最优传输. 
+5. 重复此过程，直到我们获得原始问题的解决方案。
+如果原始目标度量有密度，我们使用劳埃德算法获得第一个离散化 ν。请注意，这个想法是在 [ [Bos10] ] 中独立提出的。此过程为计算最佳运输计划提供了显着的加速，最高可达一个数量级。此外，在算法的每一步，都可以获得源测量 μ 和原始目标测量 ν 之间的 Wasserstein 距离（也称为地球移动器距离 [ [RTG00] ]）的下限和上限。使用这种方法，人们可以获得两个图像之间 Wasserstein 距离的粗略估计，与简单的凸优化方法相比，速度提高了两个数量级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 将形状重建和简化视为度量之间的传输问题（即质量分布），其中输入点被视为狄拉克度量，重建的单纯复形被视为分段统一度量的支持。
+2. 我们的重建算法通过贪婪地最小化输入点表示的狄拉克质量之间的对称 Wasserstein 传输度量以及对重建复形的 0 和 1 单纯形的分段均匀测量来推导单纯复形。
+3. 为了提高效率，提出了一种从细到粗的策略，从输入点集的 2D Delaunay 三角剖分开始，并通过重复的边缘折叠和顶点重定位进行。
+特征来自我们的最佳传输过程，而不是来自明确的特征检测方案。通过边缘滤波从简化的三角剖分中提取得到的重建，保证无交叉输出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">初始化。对于大型数据集，可以通过仅使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>𝒯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0的输入点的随机子集来获得显着的加速。
+多选优先队列。可以通过多项选择方法来加快简化过程 [ [WK02]] 而不会显着降低我们的结果：对于每个原子简化步骤，我们仅模拟半边的随机子集（通常为 10 个），并从该子集中以最小的 δ 折叠半边。当网格具有 5 倍或更少的目标顶点数时，我们切换回详尽的优先级队列，因为粗网格的折叠顺序会显着影响最终结果。
+推迟顶点重定位。仅当将足够数量的输入点分配给三角剖分的每条边时，顶点重定位才有效。显然，这个数字在算法开始时非常小，并且随着三角剖分变得更粗糙而增加。出于这个原因，我们在大多数简化过程中关闭了顶点重定位步骤，仅在最后 100 次抽取中激活它。这种降低计算成本的策略对最终结果也几乎没有影响。
+重建容忍度。有时需要控制重建引起的最大误差，尤其是在无异常点集的情况下。我们添加了一个选项，该选项从优先级队列中丢弃每个折叠运算符，这将导致最大正常和/或切线成本高于用户指定的容差的传输。当优先级队列为空时，算法终止.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 最优质量传递图的计算基于Monge-Brenier理论
+2. 对于表面配准问题，将保形图与最优质量传输图合成，以获得独特的区域保留图，这是黎曼度量所固有的、独特的和微分同胚的。
+3. 对于形状空间研究，这项工作通过结合保形几何和最佳质量传输理论，引入了一种新颖的黎曼框架，Conformal Wasserstein Shape Space
+4. 所有具有磁盘拓扑的度量表面都通过保形映射映射到单位平面磁盘，它将表面上的面积元素推到磁盘上的概率度量。
+最佳质量传输提供了从所有具有度量的拓扑圆盘的形状空间到圆盘的 Wasserstein 空间的映射，并且回拉 Wasserstein 度量为形状空间配备了黎曼度量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 保角映射用于将仰卧位结肠表面平直成平面矩形表面。
+2. 采用基于矩形域的最优质量传输映射（OMT-Map），设计了仰卧面和俯卧面的目标测量密度。
+3. 根据平坦折叠分割结果提取特征点。
+4. 引入准保形（QC）迭代基于Techmuller映射来计算展开结肠表面上仰卧结肠模型与俯卧结肠模型的配准。
+1. 距离误差评估
+2. 曲率差评估
+3. 区域失真评价
+4. 不同目标措施的比较
+5. 目标措施效果的可视化
+6. 视觉配准评估
+7. 消融实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于最优传输理论的联合分布匹配方法及应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 通过最小化两个域间联合分布的Wasserstein距离来解决上述挑战．
+2. 提出一个定理将难以求解的Wasserstein距离原问题转化为一个简单的优化问题，
+3. 并设计了一个联合Wasserstein自编码器模型（JWAE）来求解该问题．然后，本文将JWAE成功应用在无监督图像翻译和跨域视频合成任务中，并生成高质量的图像和连贯的视频．</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（１）Inception Score广泛用于生成模型中．IS通过利用Inception-V3模型的类别预测信息来评估生成样本的质量和多样性．
+（２）Frechet Inception Distance(FID)也是一个广泛使用在生成模型上的指标．FID可以评估生成图像的质量，因为它能捕获生成样本与真实样本的相似性，并与人类判断相关联．
+（３）Video variant of FID(FID4 video)评估视频的质量和连贯性．本文使用一个预训练的视频识别模型I3D对视频序列提取特征．然后，对这些特征计算FID4 video．</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1171,8 +1265,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1209,6 +1309,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1237,7 +1343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1323,6 +1429,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1606,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1618,6 +1736,8 @@
     <col min="5" max="5" width="20.5546875" customWidth="1"/>
     <col min="6" max="6" width="117.44140625" customWidth="1"/>
     <col min="7" max="7" width="50.5546875" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" customWidth="1"/>
+    <col min="10" max="10" width="98" customWidth="1"/>
     <col min="11" max="11" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1632,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>3</v>
@@ -1653,36 +1773,36 @@
         <v>8</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="220.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="2" customFormat="1" ht="317.39999999999998" x14ac:dyDescent="0.25">
@@ -1690,26 +1810,26 @@
         <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="262.2" x14ac:dyDescent="0.25">
@@ -1717,24 +1837,26 @@
         <v>11</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -1757,26 +1879,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="21" t="s">
+        <v>77</v>
+      </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="317.39999999999998" x14ac:dyDescent="0.25">
@@ -1784,141 +1908,155 @@
         <v>13</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="23" t="s">
+        <v>82</v>
+      </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
       <c r="K6" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="249" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="K7" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:26" ht="262.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="207" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>16</v>
-      </c>
       <c r="B9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="253.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="K10" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -1931,13 +2069,13 @@
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>

--- a/cite-1.0.0/参考文献.xlsx
+++ b/cite-1.0.0/参考文献.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D390E3D2-1048-4FCC-9EA9-C996C27C4660}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC6F64D-27F6-43F7-A785-ECA7B3826E12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,13 +599,7 @@
     <t>最优传输的多尺度方法</t>
   </si>
   <si>
-    <t>Optimal Transport</t>
-  </si>
-  <si>
     <t>最优传输</t>
-  </si>
-  <si>
-    <t>Computational Optimal Transport</t>
   </si>
   <si>
     <t>计算最优传输</t>
@@ -1221,6 +1215,34 @@
     <t>（１）Inception Score广泛用于生成模型中．IS通过利用Inception-V3模型的类别预测信息来评估生成样本的质量和多样性．
 （２）Frechet Inception Distance(FID)也是一个广泛使用在生成模型上的指标．FID可以评估生成图像的质量，因为它能捕获生成样本与真实样本的相似性，并与人类判断相关联．
 （３）Video variant of FID(FID4 video)评估视频的质量和连贯性．本文使用一个预训练的视频识别模型I3D对视频序列提取特征．然后，对这些特征计算FID4 video．</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal Transport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computational Optimal Transport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @book{villani2009optimal,
+  title={Optimal transport: old and new},
+  author={Villani, C{\'e}dric},
+  volume={338},
+  year={2009},
+  publisher={Springer}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @article{peyre2017computational,
+  title={Computational optimal transport},
+  author={Peyr{\'e}, Gabriel and Cuturi, Marco and others},
+  journal={Center for Research in Economics and Statistics Working Papers},
+  number={2017-86},
+  year={2017}
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1343,7 +1365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1440,6 +1462,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1724,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="J11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1821,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1850,7 +1875,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -1879,22 +1904,22 @@
         <v>12</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>52</v>
-      </c>
       <c r="G5" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -1908,28 +1933,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>57</v>
-      </c>
       <c r="G6" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
       <c r="K6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="249" x14ac:dyDescent="0.25">
@@ -1937,33 +1962,33 @@
         <v>14</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="262.2" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>42</v>
@@ -1972,20 +1997,20 @@
         <v>43</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
       <c r="K8" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="207" x14ac:dyDescent="0.25">
@@ -1993,28 +2018,28 @@
         <v>15</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>65</v>
-      </c>
       <c r="G9" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="253.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2022,41 +2047,41 @@
         <v>16</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="E10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>72</v>
-      </c>
       <c r="G10" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -2065,17 +2090,19 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="34" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -2084,7 +2111,9 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="34" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cite-1.0.0/参考文献.xlsx
+++ b/cite-1.0.0/参考文献.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC6F64D-27F6-43F7-A785-ECA7B3826E12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E45A73A-C509-43B4-83BA-BBCE9C8E0225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1093,22 +1093,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> @article{RN125,
-   author = {Morehouse, S.I. and Tung, R.S.},
-   title = {Statistical evidence for early extinction of reptiles due to the K/T event},
-   journal = {Journal of Paleontology},
-   volume = {17},
-   number = {2},
-   pages = {198-209},
-   abstract = {Northeast Spain: The stratigraphic position of the last dinosaur remains, found in the chron 31N interval, leads scientists to examine the possibility of a causal link between the extinction of reptiles in the Cretaceous period and the K/T event.},
-   keywords = {Cretaceous
-extinction},
-   year = {1993},
-   type = {Journal Article}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 给出了Monge-Kontorovich问题的一个精确公式
 2. 通过求保质量映射的极坐标分解的等价问题来寻求最优映射（通过梯度下降技术实现）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1243,6 +1227,27 @@
   number={2017-86},
   year={2017}
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @article{RN1,
+   author = {曹杰彰 and 莫朗元 and 杜卿 and 国雍 and 赵沛霖 and 黄俊洲 and 谭明奎},
+   title = {基于最优传输理论的联合分布匹配方法及应用},
+   journal = {计算机学报},
+   volume = {44},
+   number = {06},
+   pages = {1233-1245},
+   abstract = {联合分布匹配问题是机器学习和计算机视觉领域的研究热点之一.该问题旨在学习双向映射以匹配两个域的联合分布,目前仍然面临两个重要挑战:第一:两个不同域之间的相关性信息难以被充分利用.第二:联合分布匹配问题难以建模和优化.基于最优传输理论,本文通过最小化两个域间联合分布的Wasserstein距离来解决上述挑战.首先,本文提出一个定理将难以求解的Wasserstein距离原问题转化为一个简单的优化问题,并设计了一个联合Wasserstein自编码器模型(JWAE)来求解该问题.然后,本文将JWAE成功应用在无监督图像翻译和跨域视频合成任务中,并生成高质量的图像和连贯的视频.实验结果表明,JWAE在两种任务中的定性和定量指标上均优于现有方法.比如,在"街景→语义分割"图像翻译任务中,JWAE的IS值比CvcleGAN高0.59,FID值比CycleGAN小65.8.在"冬季→夏季"跨域视频合成任务中JWAE的FID4video值比Slomo-Cycle小2.2.},
+   keywords = {联合分布匹配
+最优传输理论
+Wasserstein距离
+无监督图像翻译
+跨域视频合成},
+   ISSN = {0254-4164},
+   year = {2021},
+   type = {Journal Article}
+}
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1749,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="J10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1826,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1875,7 +1880,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -1904,7 +1909,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>38</v>
@@ -1919,7 +1924,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -1948,7 +1953,7 @@
         <v>55</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
@@ -1975,12 +1980,12 @@
         <v>59</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>57</v>
@@ -1988,7 +1993,7 @@
     </row>
     <row r="8" spans="1:26" ht="262.2" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>42</v>
@@ -2004,7 +2009,7 @@
         <v>66</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
@@ -2033,7 +2038,7 @@
         <v>63</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -2050,7 +2055,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>69</v>
@@ -2062,15 +2067,15 @@
         <v>70</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2078,7 +2083,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>44</v>
@@ -2091,7 +2096,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2099,7 +2104,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>45</v>
@@ -2112,7 +2117,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/cite-1.0.0/参考文献.xlsx
+++ b/cite-1.0.0/参考文献.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E45A73A-C509-43B4-83BA-BBCE9C8E0225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB0A9B7-B174-4E11-8AA0-5699BEB43FEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,9 +593,6 @@
     <t>一种用于稳健重建和简化2D形状的最优传输方法</t>
   </si>
   <si>
-    <t>A Multiscale Approach to Optimal Transport</t>
-  </si>
-  <si>
     <t>最优传输的多尺度方法</t>
   </si>
   <si>
@@ -1248,6 +1245,10 @@
    type = {Journal Article}
 }
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Multiscale Approach to Optimal Transport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1754,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1768,7 +1769,7 @@
     <col min="7" max="7" width="50.5546875" customWidth="1"/>
     <col min="9" max="9" width="28.109375" customWidth="1"/>
     <col min="10" max="10" width="98" customWidth="1"/>
-    <col min="11" max="11" width="37.77734375" customWidth="1"/>
+    <col min="11" max="11" width="80.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -1826,7 +1827,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1880,7 +1881,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -1909,22 +1910,22 @@
         <v>12</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="G5" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -1938,28 +1939,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>55</v>
-      </c>
       <c r="G6" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
       <c r="K6" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="249" x14ac:dyDescent="0.25">
@@ -1967,55 +1968,55 @@
         <v>14</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="262.2" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>43</v>
-      </c>
       <c r="D8" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
       <c r="K8" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="207" x14ac:dyDescent="0.25">
@@ -2023,59 +2024,59 @@
         <v>15</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>47</v>
-      </c>
       <c r="E9" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="253.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="318" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="F10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2083,10 +2084,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -2096,7 +2097,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2104,10 +2105,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -2117,7 +2118,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
